--- a/data/trans_dic/P42-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P42-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,69%</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>72,88; 83,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>80,48; 89,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>88,65; 97,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>72,88; 83,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>80,48; 89,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>88,65; 97,32</t>
         </is>
       </c>
     </row>
@@ -816,42 +816,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,41%</t>
         </is>
       </c>
     </row>
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>77,95; 84,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>87,78; 92,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>80,82; 87,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>86,52; 92,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>77,95; 84,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>87,78; 92,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>80,82; 87,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>86,52; 92,99</t>
         </is>
       </c>
     </row>
@@ -956,42 +956,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,64%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,1%</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>71,01; 80,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>81,39; 89,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>82,6; 90,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>74,38; 84,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>71,01; 80,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>81,39; 89,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>82,6; 90,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>74,38; 84,61</t>
         </is>
       </c>
     </row>
@@ -1096,42 +1096,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,43%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,5%</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>71,36; 80,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>83,35; 88,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>80,76; 88,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>84,4; 93,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>71,36; 80,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>83,35; 88,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>80,76; 88,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>84,4; 93,35</t>
         </is>
       </c>
     </row>
@@ -1236,42 +1236,42 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,37%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,72%</t>
         </is>
       </c>
     </row>
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>67,09; 78,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>80,58; 90,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>85,19; 93,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>79,9; 90,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>67,09; 78,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>80,58; 90,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>85,19; 93,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>79,9; 90,23</t>
         </is>
       </c>
     </row>
@@ -1376,42 +1376,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,66%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,62%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,61%</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1444,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>67,88; 78,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>81,42; 89,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>73,61; 83,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>65,43; 76,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>67,88; 78,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>81,42; 89,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>73,61; 83,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>65,43; 76,06</t>
         </is>
       </c>
     </row>
@@ -1516,42 +1516,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,89%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,89%</t>
         </is>
       </c>
     </row>
@@ -1584,42 +1584,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>80,64; 86,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>86,94; 91,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>89,35; 93,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>33,37; 88,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>80,64; 86,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>86,94; 91,81</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>89,35; 93,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>33,37; 88,1</t>
         </is>
       </c>
     </row>
@@ -1656,42 +1656,42 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,82%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,83%</t>
         </is>
       </c>
     </row>
@@ -1724,42 +1724,42 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>76,77; 82,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>82,59; 87,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>87,46; 91,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>73,17; 80,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>76,77; 82,64</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>82,59; 87,55</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>87,46; 91,64</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>73,17; 80,29</t>
         </is>
       </c>
     </row>
@@ -1796,42 +1796,42 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,11%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,11%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,51%</t>
         </is>
       </c>
     </row>
@@ -1864,42 +1864,42 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,69; 80,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>85,92; 88,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>85,98; 88,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>68,52; 84,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,69; 80,5</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>85,92; 88,21</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>85,98; 88,29</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>68,52; 84,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P42-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42-Provincia-trans_dic.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>93,72%</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,68; 91,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,65; 97,32</t>
+          <t>84,3; 97,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,68; 91,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,65; 97,32</t>
+          <t>84,3; 97,04</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>90,53%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,52; 92,99</t>
+          <t>86,56; 93,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,52; 92,99</t>
+          <t>86,56; 93,02</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>80,1%</t>
+          <t>80,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>80,1%</t>
+          <t>80,14%</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,38; 84,61</t>
+          <t>74,47; 84,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,38; 84,61</t>
+          <t>74,47; 84,66</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>84,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>84,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>91,71%</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,35; 88,72</t>
+          <t>80,23; 88,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,4; 93,35</t>
+          <t>86,44; 95,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,35; 88,72</t>
+          <t>80,23; 88,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,4; 93,35</t>
+          <t>86,44; 95,71</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>86,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>86,42%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,9; 90,23</t>
+          <t>81,19; 90,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>79,9; 90,23</t>
+          <t>81,19; 90,5</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>70,61%</t>
+          <t>70,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>70,61%</t>
+          <t>70,53%</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,43; 76,06</t>
+          <t>65,34; 76,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>65,43; 76,06</t>
+          <t>65,34; 76,0</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>70,89%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>70,89%</t>
+          <t>59,94%</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,37; 88,1</t>
+          <t>20,93; 88,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,37; 88,1</t>
+          <t>20,93; 88,23</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>77,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>77,78%</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>73,17; 80,29</t>
+          <t>74,31; 81,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>73,17; 80,29</t>
+          <t>74,31; 81,06</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>80,51%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>80,51%</t>
+          <t>78,55%</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>68,52; 84,11</t>
+          <t>59,07; 85,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>68,52; 84,11</t>
+          <t>59,07; 85,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P42-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -744,49 +745,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,88; 83,56</t>
+          <t>73,29; 83,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,68; 91,93</t>
+          <t>83,97; 91,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,48; 89,08</t>
+          <t>80,5; 88,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>84,3; 97,04</t>
+          <t>82,26; 97,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>72,88; 83,56</t>
+          <t>73,29; 83,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>83,68; 91,93</t>
+          <t>83,97; 91,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>80,48; 89,08</t>
+          <t>80,5; 88,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,3; 97,04</t>
+          <t>82,26; 97,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -884,49 +885,49 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,95; 84,73</t>
+          <t>77,92; 84,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,78; 92,97</t>
+          <t>87,79; 92,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,82; 87,47</t>
+          <t>80,57; 87,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,56; 93,02</t>
+          <t>86,38; 93,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,95; 84,73</t>
+          <t>77,92; 84,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,78; 92,97</t>
+          <t>87,79; 92,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,82; 87,47</t>
+          <t>80,57; 87,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,56; 93,02</t>
+          <t>86,38; 93,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,01; 80,12</t>
+          <t>71,03; 80,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,39; 89,22</t>
+          <t>81,14; 88,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,6; 90,1</t>
+          <t>82,3; 90,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,47; 84,66</t>
+          <t>74,95; 84,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,01; 80,12</t>
+          <t>71,03; 80,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>81,39; 89,22</t>
+          <t>81,14; 88,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>82,6; 90,1</t>
+          <t>82,3; 90,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,47; 84,66</t>
+          <t>74,95; 84,53</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,36; 80,01</t>
+          <t>71,77; 80,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>80,23; 88,06</t>
+          <t>80,19; 87,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,76; 88,24</t>
+          <t>80,89; 88,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,44; 95,71</t>
+          <t>86,48; 95,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,36; 80,01</t>
+          <t>71,77; 80,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80,23; 88,06</t>
+          <t>80,19; 87,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,76; 88,24</t>
+          <t>80,89; 88,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,44; 95,71</t>
+          <t>86,48; 95,67</t>
         </is>
       </c>
     </row>
@@ -1304,49 +1305,49 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,09; 78,95</t>
+          <t>67,33; 79,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,58; 90,02</t>
+          <t>80,32; 90,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>85,19; 93,2</t>
+          <t>85,05; 93,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>81,19; 90,5</t>
+          <t>80,99; 90,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>67,09; 78,95</t>
+          <t>67,33; 79,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>80,58; 90,02</t>
+          <t>80,32; 90,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>85,19; 93,2</t>
+          <t>85,05; 93,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>81,19; 90,5</t>
+          <t>80,99; 90,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1444,49 +1445,49 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,88; 78,56</t>
+          <t>68,67; 78,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,42; 89,8</t>
+          <t>81,49; 89,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>73,61; 83,27</t>
+          <t>72,99; 83,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,34; 76,0</t>
+          <t>64,56; 76,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67,88; 78,56</t>
+          <t>68,67; 78,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>81,42; 89,8</t>
+          <t>81,49; 89,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,61; 83,27</t>
+          <t>72,99; 83,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>65,34; 76,0</t>
+          <t>64,56; 76,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1584,42 +1585,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>80,64; 86,39</t>
+          <t>80,64; 86,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,94; 91,81</t>
+          <t>86,95; 91,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,35; 93,74</t>
+          <t>89,3; 93,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,93; 88,23</t>
+          <t>25,72; 88,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>80,64; 86,39</t>
+          <t>80,64; 86,53</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>86,94; 91,81</t>
+          <t>86,95; 91,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>89,35; 93,74</t>
+          <t>89,3; 93,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,93; 88,23</t>
+          <t>25,72; 88,29</t>
         </is>
       </c>
     </row>
@@ -1724,42 +1725,42 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76,77; 82,64</t>
+          <t>76,97; 82,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>82,59; 87,55</t>
+          <t>82,54; 87,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,46; 91,64</t>
+          <t>87,36; 91,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74,31; 81,06</t>
+          <t>74,51; 81,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>76,77; 82,64</t>
+          <t>76,97; 82,67</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>82,59; 87,55</t>
+          <t>82,54; 87,57</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>87,46; 91,64</t>
+          <t>87,36; 91,69</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>74,31; 81,06</t>
+          <t>74,51; 81,18</t>
         </is>
       </c>
     </row>
@@ -1864,42 +1865,42 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>77,69; 80,5</t>
+          <t>77,74; 80,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>85,92; 88,21</t>
+          <t>86,08; 88,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>85,98; 88,29</t>
+          <t>86,12; 88,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>59,07; 85,15</t>
+          <t>59,58; 85,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>77,69; 80,5</t>
+          <t>77,74; 80,45</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>85,92; 88,21</t>
+          <t>86,08; 88,28</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>85,98; 88,29</t>
+          <t>86,12; 88,42</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>59,07; 85,15</t>
+          <t>59,58; 85,19</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido alguna vez al ginecólogo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>205897</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>250891</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>239486</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>174526</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>205897</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>250891</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>239486</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>174526</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>191166; 218598</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>238584; 261337</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>226723; 249742</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>153186; 181063</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>191166; 218598</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>238584; 261337</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>226723; 249742</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>153186; 181063</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>409655</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>474163</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>437523</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>367710</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>409655</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>474163</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>437523</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>367710</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>391053; 426218</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>458960; 486119</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>418316; 454791</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>350817; 378220</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>391053; 426218</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>458960; 486119</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>418316; 454791</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>350817; 378220</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>253495</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>290219</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>289659</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>201294</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>253495</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>290219</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>289659</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>201294</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>236913; 267834</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>275866; 302247</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>275149; 300924</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>188238; 212315</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>236913; 267834</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>275866; 302247</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>275149; 300924</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>188238; 212315</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>283040</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>327986</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>327054</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>353337</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>283040</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>327986</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>327054</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>353337</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>265797; 297841</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>311119; 340839</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>312523; 341115</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>333154; 368591</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>265797; 297841</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>311119; 340839</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>312523; 341115</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>333154; 368591</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>149214</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>188207</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>195122</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>131587</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>149214</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>188207</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>195122</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>131587</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>136931; 160989</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>176368; 197754</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>185177; 202917</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>123311; 137934</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>136931; 160989</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>176368; 197754</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>185177; 202917</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>123311; 137934</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>204025</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>241176</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>214730</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>147981</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>204025</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>241176</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>214730</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>147981</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>190197; 218122</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>228199; 251124</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>199347; 227533</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>135463; 159513</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>190197; 218122</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>228199; 251124</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>199347; 227533</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>135463; 159513</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>534297</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>619193</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>628556</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>393933</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>534297</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>619193</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>628556</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>393933</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>514690; 552259</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>600581; 634287</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>611538; 642752</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>169024; 580252</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>514690; 552259</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>600581; 634287</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>611538; 642752</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>169024; 580252</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>621731</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>691366</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>734423</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>449745</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>621731</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>691366</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>734423</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>449745</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>599563; 643994</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>670235; 711059</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>716259; 751697</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>430821; 469402</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>599563; 643994</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>670235; 711059</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>716259; 751697</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>430821; 469402</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2584</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2847</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3520</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2584</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2847</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3520</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2661356</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3083200</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>3066554</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2220114</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2661356</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>3083200</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>3066554</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2220114</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2615119; 2706419</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>3044776; 3122790</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3028943; 3109819</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1683901; 2407647</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>2615119; 2706419</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>3044776; 3122790</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3028943; 3109819</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1683901; 2407647</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>